--- a/results/Atari/Beamrider/T8/Averages_DDQN.xlsx
+++ b/results/Atari/Beamrider/T8/Averages_DDQN.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA_Projecten\Q-Learning\results\Atari\Beamrider\T8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF86661F-0AC5-4F8F-91E3-2AE5512551F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD83A08-6BFC-4B1C-8700-839E42B51B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Averages_DDQN" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -653,7 +653,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="movingAvg"/>
-            <c:period val="40"/>
+            <c:period val="30"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -9832,6 +9832,7 @@
         <c:axId val="571310472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10851,11 +10852,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3032"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
